--- a/StructureDefinition-HIVEF.xlsx
+++ b/StructureDefinition-HIVEF.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T17:44:17+00:00</t>
+    <t>2024-03-05T17:44:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
